--- a/Documents/elephant leg angle.xlsx
+++ b/Documents/elephant leg angle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156933F-F24E-499F-9BB6-80A6F74B4170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B1946-06E1-4E33-B18D-2CF78629265B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{966C0F8B-A4D1-45A4-97F7-375E6DEC019D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>left front</t>
   </si>
@@ -67,7 +67,10 @@
     <t>rb</t>
   </si>
   <si>
-    <t>lf derivative</t>
+    <t>lf derivate second</t>
+  </si>
+  <si>
+    <t>lb derivative second</t>
   </si>
 </sst>
 </file>
@@ -812,7 +815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$Q$4</c:f>
+              <c:f>Dijskra!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -847,35 +850,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$P$5:$P$21</c:f>
+              <c:f>Dijskra!$S$5:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -883,35 +886,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$Q$5:$Q$21</c:f>
+              <c:f>Dijskra!$T$5:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.941882</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95897500000000002</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95897500000000002</c:v>
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91527499999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99183200000000005</c:v>
+                  <c:v>0.78456199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82023800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91527499999999995</c:v>
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89112999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78456199999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82023800000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.79195899999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89112999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.941882</c:v>
                 </c:pt>
               </c:numCache>
@@ -929,7 +932,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$R$4</c:f>
+              <c:f>Dijskra!$U$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,35 +967,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$P$5:$P$21</c:f>
+              <c:f>Dijskra!$S$5:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1000,35 +1003,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$R$5:$R$21</c:f>
+              <c:f>Dijskra!$U$5:$U$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.78456199999999998</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82023800000000002</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82023800000000002</c:v>
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89112999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79195899999999997</c:v>
+                  <c:v>0.941882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95897500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89112999999999998</c:v>
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91527499999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.941882</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95897500000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99183200000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.91527499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.78456199999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1046,7 +1049,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$S$4</c:f>
+              <c:f>Dijskra!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1081,35 +1084,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$P$5:$P$21</c:f>
+              <c:f>Dijskra!$S$5:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1117,35 +1120,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$S$5:$S$21</c:f>
+              <c:f>Dijskra!$V$5:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4222699999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42615</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42615</c:v>
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3812800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4601900000000001</c:v>
+                  <c:v>1.12313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1766700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3812800000000001</c:v>
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0498499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.12313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1766700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2130300000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0498499999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.4222699999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1163,7 +1166,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$T$4</c:f>
+              <c:f>Dijskra!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1198,35 +1201,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$P$5:$P$21</c:f>
+              <c:f>Dijskra!$S$5:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1234,35 +1237,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$T$5:$T$21</c:f>
+              <c:f>Dijskra!$W$5:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.12313</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1766700000000001</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1766700000000001</c:v>
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0498499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2130300000000001</c:v>
+                  <c:v>1.4222699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0498499999999999</c:v>
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3812800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4222699999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4601900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3812800000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.12313</c:v>
                 </c:pt>
               </c:numCache>
@@ -5375,35 +5378,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$B$5:$B$21</c:f>
+              <c:f>Dijskra!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5411,35 +5414,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$C$5:$C$21</c:f>
+              <c:f>Dijskra!$C$5:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.89112999999999998</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78456199999999998</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78456199999999998</c:v>
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82023800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79195899999999997</c:v>
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95897500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82023800000000002</c:v>
+                  <c:v>0.941882</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91527499999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99183200000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95897500000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.941882</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.91527499999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.89112999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -5492,35 +5495,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$B$5:$B$21</c:f>
+              <c:f>Dijskra!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5528,35 +5531,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$D$5:$D$21</c:f>
+              <c:f>Dijskra!$D$5:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.91527499999999995</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.941882</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.941882</c:v>
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95897500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99183200000000005</c:v>
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82023800000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95897500000000002</c:v>
+                  <c:v>0.78456199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89112999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79195899999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.82023800000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.78456199999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89112999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.91527499999999995</c:v>
                 </c:pt>
               </c:numCache>
@@ -5609,35 +5612,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$B$5:$B$21</c:f>
+              <c:f>Dijskra!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5645,35 +5648,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$E$5:$E$21</c:f>
+              <c:f>Dijskra!$E$5:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0498499999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.12313</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.12313</c:v>
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1766700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2130300000000001</c:v>
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.42615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1766700000000001</c:v>
+                  <c:v>1.4222699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3812800000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4601900000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4222699999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3812800000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.0498499999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5726,35 +5729,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Dijskra!$B$5:$B$21</c:f>
+              <c:f>Dijskra!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5762,35 +5765,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dijskra!$F$5:$F$21</c:f>
+              <c:f>Dijskra!$F$5:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.3812800000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4222699999999999</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4222699999999999</c:v>
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4601900000000001</c:v>
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1766700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.42615</c:v>
+                  <c:v>1.12313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0498499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2130300000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1766700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.12313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0498499999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.3812800000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -6079,15 +6082,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$J$4</c:f>
+              <c:f>Dijskra!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6120,103 +6123,130 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3403854995602225E-2"/>
+                  <c:y val="0.15458883173913196"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Dijskra!$I$5:$I$21</c:f>
+              <c:f>Dijskra!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Dijskra!$J$5:$J$21</c:f>
+              <c:f>Dijskra!$K$5:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.89112999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92505250000000006</c:v>
+                  <c:v>0.95897500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95897500000000002</c:v>
+                  <c:v>0.99183200000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97540350000000009</c:v>
+                  <c:v>0.941882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99183200000000005</c:v>
+                  <c:v>0.91527499999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96685700000000008</c:v>
+                  <c:v>0.79195899999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.941882</c:v>
+                  <c:v>0.82023800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92857849999999997</c:v>
+                  <c:v>0.78456199999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91527499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.85361699999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79195899999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.80609850000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.82023800000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8024</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.78456199999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83784599999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.89112999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DCA4-4EFE-AB23-AACF9780AC0F}"/>
@@ -6228,7 +6258,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$K$4</c:f>
+              <c:f>Dijskra!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6261,103 +6291,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Dijskra!$I$5:$I$21</c:f>
+              <c:f>Dijskra!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Dijskra!$K$5:$K$21</c:f>
+              <c:f>Dijskra!$L$5:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.91527499999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86775650000000004</c:v>
+                  <c:v>0.82023800000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82023800000000002</c:v>
+                  <c:v>0.79195899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80609850000000005</c:v>
+                  <c:v>0.78456199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79195899999999997</c:v>
+                  <c:v>0.89112999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78826050000000003</c:v>
+                  <c:v>0.99183200000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78456199999999998</c:v>
+                  <c:v>0.95897500000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83784599999999998</c:v>
+                  <c:v>0.941882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89112999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94148100000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99183200000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97540350000000009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95897500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95042850000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.941882</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.92857849999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.91527499999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DCA4-4EFE-AB23-AACF9780AC0F}"/>
@@ -6369,7 +6375,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$L$4</c:f>
+              <c:f>Dijskra!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6402,103 +6408,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Dijskra!$I$5:$I$21</c:f>
+              <c:f>Dijskra!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Dijskra!$L$5:$L$21</c:f>
+              <c:f>Dijskra!$M$5:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0498499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.238</c:v>
+                  <c:v>1.42615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42615</c:v>
+                  <c:v>1.4601900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4431700000000001</c:v>
+                  <c:v>1.4222699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4601900000000001</c:v>
+                  <c:v>1.3812800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.44123</c:v>
+                  <c:v>1.2130300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4222699999999999</c:v>
+                  <c:v>1.1766700000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.401775</c:v>
+                  <c:v>1.12313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3812800000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2971550000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2130300000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1948500000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1766700000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1499000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.12313</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.08649</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.0498499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DCA4-4EFE-AB23-AACF9780AC0F}"/>
@@ -6510,7 +6492,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$M$4</c:f>
+              <c:f>Dijskra!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6543,103 +6525,79 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Dijskra!$I$5:$I$21</c:f>
+              <c:f>Dijskra!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Dijskra!$M$5:$M$21</c:f>
+              <c:f>Dijskra!$N$5:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.3812800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.278975</c:v>
+                  <c:v>1.1766700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1766700000000001</c:v>
+                  <c:v>1.2130300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1948500000000002</c:v>
+                  <c:v>1.12313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2130300000000001</c:v>
+                  <c:v>1.0498499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.16808</c:v>
+                  <c:v>1.4601900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12313</c:v>
+                  <c:v>1.42615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08649</c:v>
+                  <c:v>1.4222699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0498499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4601900000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4431700000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.42615</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.42421</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4222699999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.401775</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1.3812800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DCA4-4EFE-AB23-AACF9780AC0F}"/>
@@ -6651,11 +6609,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dijskra!$N$4</c:f>
+              <c:f>Dijskra!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lf derivative</c:v>
+                  <c:v>lf derivate second</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6684,100 +6642,76 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Dijskra!$I$5:$I$21</c:f>
+              <c:f>Dijskra!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Dijskra!$N$5:$N$21</c:f>
+              <c:f>Dijskra!$O$5:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>6.7845000000000044E-2</c:v>
+                  <c:v>-3.4988000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0351000000000035E-2</c:v>
+                  <c:v>-8.2807000000000075E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2857000000000025E-2</c:v>
+                  <c:v>2.3343000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.5465000000000124E-3</c:v>
+                  <c:v>-9.6708999999999934E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.995000000000005E-2</c:v>
+                  <c:v>0.15159500000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.8278500000000049E-2</c:v>
+                  <c:v>-6.3955000000000095E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.6607000000000047E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.4961500000000014E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.12331599999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.7518499999999964E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.8279000000000054E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.6984999999999935E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.5676000000000041E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5445999999999978E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.106568</c:v>
+                  <c:v>0.14224400000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DCA4-4EFE-AB23-AACF9780AC0F}"/>
+              <c16:uniqueId val="{00000001-4AFD-4802-8F28-3AA3C7B470E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6789,12 +6723,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="566640896"/>
         <c:axId val="566638928"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="566640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6840,11 +6772,9 @@
         </c:txPr>
         <c:crossAx val="566638928"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="566638928"/>
         <c:scaling>
@@ -6899,7 +6829,7 @@
         </c:txPr>
         <c:crossAx val="566640896"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -12682,13 +12612,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>245268</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>597693</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>69056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12717,15 +12647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>78580</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40480</xdr:rowOff>
+      <xdr:colOff>292891</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>569117</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12752,15 +12682,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>683418</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>73819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13868,20 +13798,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA7CED-6CCE-4054-BEA1-4FADCD5626CC}">
-  <dimension ref="B4:T48"/>
+  <dimension ref="B4:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="3.59765625" customWidth="1"/>
-    <col min="9" max="9" width="3.796875" customWidth="1"/>
-    <col min="16" max="16" width="3.59765625" customWidth="1"/>
+    <col min="9" max="10" width="3.796875" customWidth="1"/>
+    <col min="19" max="19" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -13894,35 +13824,38 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>8</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
@@ -13939,749 +13872,633 @@
         <v>1.3812800000000001</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.89112999999999998</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.91527499999999995</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.0498499999999999</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.3812800000000001</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>0.941882</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>0.78456199999999998</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>1.4222699999999999</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>1.12313</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.941882</v>
+      </c>
+      <c r="E6">
+        <v>1.12313</v>
+      </c>
+      <c r="F6">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
-        <f>(J5+J7)/2</f>
-        <v>0.92505250000000006</v>
+        <v>-1</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:M6" si="0">(K5+K7)/2</f>
-        <v>0.86775650000000004</v>
+        <v>0.95897500000000002</v>
       </c>
       <c r="L6">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="M6">
+        <v>1.42615</v>
+      </c>
+      <c r="N6">
+        <v>1.1766700000000001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O12" si="0">(K7-K6)-(K6-K5)</f>
+        <v>-3.4988000000000019E-2</v>
+      </c>
+      <c r="P6">
+        <f>(M7-M6)-(M6-M5)</f>
+        <v>-0.34226000000000001</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>0.95897500000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="V6">
+        <v>1.42615</v>
+      </c>
+      <c r="W6">
+        <v>1.1766700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="E7">
+        <v>1.2130300000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>-2</v>
+      </c>
+      <c r="K7">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="L7">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="M7">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.2130300000000001</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.238</v>
-      </c>
-      <c r="M6">
+        <v>-8.2807000000000075E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P12" si="1">(M8-M7)-(M7-M6)</f>
+        <v>-7.1960000000000246E-2</v>
+      </c>
+      <c r="S7">
+        <v>-2</v>
+      </c>
+      <c r="T7">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="U7">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="V7">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="W7">
+        <v>1.2130300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.95897500000000002</v>
+      </c>
+      <c r="E8">
+        <v>1.1766700000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.42615</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>3-H8</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.941882</v>
+      </c>
+      <c r="L8">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="M8">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.12313</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>1.278975</v>
-      </c>
-      <c r="N6">
-        <f>J7-J5</f>
-        <v>6.7845000000000044E-2</v>
+        <v>2.3343000000000003E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>-3.0699999999996841E-3</v>
+      </c>
+      <c r="S8">
+        <v>-3</v>
+      </c>
+      <c r="T8">
+        <v>0.91527499999999995</v>
+      </c>
+      <c r="U8">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="V8">
+        <v>1.3812800000000001</v>
+      </c>
+      <c r="W8">
+        <v>1.0498499999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B7">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="E9">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.2130300000000001</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>-3</v>
+      </c>
+      <c r="K9">
+        <v>0.91527499999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="M9">
+        <v>1.3812800000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.0498499999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>-9.6708999999999934E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-0.12726000000000015</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="T9">
         <v>0.78456199999999998</v>
       </c>
-      <c r="D7">
+      <c r="U9">
         <v>0.941882</v>
       </c>
-      <c r="E7">
+      <c r="V9">
         <v>1.12313</v>
       </c>
-      <c r="F7">
+      <c r="W9">
         <v>1.4222699999999999</v>
       </c>
-      <c r="I7">
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B10">
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="C10">
         <v>0.95897500000000002</v>
       </c>
-      <c r="K7">
+      <c r="D10">
         <v>0.82023800000000002</v>
       </c>
-      <c r="L7">
+      <c r="E10">
         <v>1.42615</v>
       </c>
-      <c r="M7">
+      <c r="F10">
         <v>1.1766700000000001</v>
       </c>
-      <c r="N7">
-        <f>(N6+N8)/2</f>
-        <v>5.0351000000000035E-2</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
+      <c r="I10">
+        <f>5+H8</f>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="L10">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="M10">
+        <v>1.2130300000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.15159500000000004</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0.13189000000000006</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="U10">
         <v>0.95897500000000002</v>
       </c>
-      <c r="R7">
+      <c r="V10">
+        <v>1.1766700000000001</v>
+      </c>
+      <c r="W10">
+        <v>1.42615</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.941882</v>
+      </c>
+      <c r="D11">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="E11">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.12313</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>0.82023800000000002</v>
       </c>
-      <c r="S7">
+      <c r="L11">
+        <v>0.95897500000000002</v>
+      </c>
+      <c r="M11">
+        <v>1.1766700000000001</v>
+      </c>
+      <c r="N11">
         <v>1.42615</v>
       </c>
-      <c r="T7">
-        <v>1.1766700000000001</v>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-6.3955000000000095E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>-1.7180000000000195E-2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="U11">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="V11">
+        <v>1.2130300000000001</v>
+      </c>
+      <c r="W11">
+        <v>1.4601900000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J8">
-        <f>(J7+J9)/2</f>
-        <v>0.97540350000000009</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8" si="1">(K7+K9)/2</f>
-        <v>0.80609850000000005</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8" si="2">(L7+L9)/2</f>
-        <v>1.4431700000000001</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8" si="3">(M7+M9)/2</f>
-        <v>1.1948500000000002</v>
-      </c>
-      <c r="N8">
-        <f>J9-J7</f>
-        <v>3.2857000000000025E-2</v>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>0.91527499999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.3812800000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.0498499999999999</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="L12">
+        <v>0.941882</v>
+      </c>
+      <c r="M12">
+        <v>1.12313</v>
+      </c>
+      <c r="N12">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.14224400000000004</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>-1.9739999999999869E-2</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="U12">
+        <v>0.91527499999999995</v>
+      </c>
+      <c r="V12">
+        <v>1.0498499999999999</v>
+      </c>
+      <c r="W12">
+        <v>1.3812800000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="D9">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="E9">
-        <v>1.2130300000000001</v>
-      </c>
-      <c r="F9">
-        <v>1.4601900000000001</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="K9">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="L9">
-        <v>1.4601900000000001</v>
-      </c>
-      <c r="M9">
-        <v>1.2130300000000001</v>
-      </c>
-      <c r="N9">
-        <f>(N8+N10)/2</f>
-        <v>-8.5465000000000124E-3</v>
-      </c>
-      <c r="P9">
-        <v>-2</v>
-      </c>
-      <c r="Q9">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="R9">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="S9">
-        <v>1.4601900000000001</v>
-      </c>
-      <c r="T9">
-        <v>1.2130300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J10">
-        <f>(J9+J11)/2</f>
-        <v>0.96685700000000008</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10" si="4">(K9+K11)/2</f>
-        <v>0.78826050000000003</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ref="L10" si="5">(L9+L11)/2</f>
-        <v>1.44123</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10" si="6">(M9+M11)/2</f>
-        <v>1.16808</v>
-      </c>
-      <c r="N10">
-        <f>J11-J9</f>
-        <v>-4.995000000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="E11">
-        <v>1.1766700000000001</v>
-      </c>
-      <c r="F11">
-        <v>1.42615</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.941882</v>
-      </c>
-      <c r="K11">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="L11">
-        <v>1.4222699999999999</v>
-      </c>
-      <c r="M11">
-        <v>1.12313</v>
-      </c>
-      <c r="N11">
-        <f>(N10+N12)/2</f>
-        <v>-3.8278500000000049E-2</v>
-      </c>
-      <c r="P11">
-        <v>-3</v>
-      </c>
-      <c r="Q11">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="D13">
         <v>0.91527499999999995</v>
       </c>
-      <c r="R11">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="S11">
+      <c r="E13">
+        <v>1.0498499999999999</v>
+      </c>
+      <c r="F13">
         <v>1.3812800000000001</v>
       </c>
-      <c r="T11">
-        <v>1.0498499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J12">
-        <f>(J11+J13)/2</f>
-        <v>0.92857849999999997</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12" si="7">(K11+K13)/2</f>
-        <v>0.83784599999999998</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12" si="8">(L11+L13)/2</f>
-        <v>1.401775</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12" si="9">(M11+M13)/2</f>
-        <v>1.08649</v>
-      </c>
-      <c r="N12">
-        <f>J13-J11</f>
-        <v>-2.6607000000000047E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="D13">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="E13">
-        <v>1.4601900000000001</v>
-      </c>
-      <c r="F13">
-        <v>1.2130300000000001</v>
-      </c>
       <c r="I13">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>0.91527499999999995</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0.89112999999999998</v>
       </c>
       <c r="L13">
-        <v>1.3812800000000001</v>
+        <v>0.91527499999999995</v>
       </c>
       <c r="M13">
         <v>1.0498499999999999</v>
       </c>
       <c r="N13">
-        <f>(N12+N14)/2</f>
-        <v>-7.4961500000000014E-2</v>
-      </c>
-      <c r="P13">
+        <v>1.3812800000000001</v>
+      </c>
+      <c r="S13">
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
+        <v>0.941882</v>
+      </c>
+      <c r="U13">
         <v>0.78456199999999998</v>
       </c>
-      <c r="R13">
+      <c r="V13">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="W13">
+        <v>1.12313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.941882</v>
       </c>
-      <c r="S13">
+      <c r="D33">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="E33">
+        <v>1.4222699999999999</v>
+      </c>
+      <c r="F33">
         <v>1.12313</v>
       </c>
-      <c r="T13">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>0.95897500000000002</v>
+      </c>
+      <c r="D34">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="E34">
+        <v>1.42615</v>
+      </c>
+      <c r="F34">
+        <v>1.1766700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>-2</v>
+      </c>
+      <c r="C35">
+        <v>0.99183200000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.79195899999999997</v>
+      </c>
+      <c r="E35">
+        <v>1.4601900000000001</v>
+      </c>
+      <c r="F35">
+        <v>1.2130300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>-3</v>
+      </c>
+      <c r="C36">
+        <v>0.91527499999999995</v>
+      </c>
+      <c r="D36">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="E36">
+        <v>1.3812800000000001</v>
+      </c>
+      <c r="F36">
+        <v>1.0498499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.78456199999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.941882</v>
+      </c>
+      <c r="E37">
+        <v>1.12313</v>
+      </c>
+      <c r="F37">
         <v>1.4222699999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J14">
-        <f>(J13+J15)/2</f>
-        <v>0.85361699999999996</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14" si="10">(K13+K15)/2</f>
-        <v>0.94148100000000001</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14" si="11">(L13+L15)/2</f>
-        <v>1.2971550000000001</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14" si="12">(M13+M15)/2</f>
-        <v>1.25502</v>
-      </c>
-      <c r="N14">
-        <f>J15-J13</f>
-        <v>-0.12331599999999998</v>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.82023800000000002</v>
+      </c>
+      <c r="D38">
+        <v>0.95897500000000002</v>
+      </c>
+      <c r="E38">
+        <v>1.1766700000000001</v>
+      </c>
+      <c r="F38">
+        <v>1.42615</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="D15">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="E15">
-        <v>1.42615</v>
-      </c>
-      <c r="F15">
-        <v>1.1766700000000001</v>
-      </c>
-      <c r="I15">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="C39">
         <v>0.79195899999999997</v>
       </c>
-      <c r="K15">
+      <c r="D39">
         <v>0.99183200000000005</v>
       </c>
-      <c r="L15">
+      <c r="E39">
         <v>1.2130300000000001</v>
       </c>
-      <c r="M15">
+      <c r="F39">
         <v>1.4601900000000001</v>
       </c>
-      <c r="N15">
-        <f>(N14+N16)/2</f>
-        <v>-4.7518499999999964E-2</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="R15">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="S15">
-        <v>1.1766700000000001</v>
-      </c>
-      <c r="T15">
-        <v>1.42615</v>
-      </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J16">
-        <f>(J15+J17)/2</f>
-        <v>0.80609850000000005</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16" si="13">(K15+K17)/2</f>
-        <v>0.97540350000000009</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16" si="14">(L15+L17)/2</f>
-        <v>1.1948500000000002</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16" si="15">(M15+M17)/2</f>
-        <v>1.4431700000000001</v>
-      </c>
-      <c r="N16">
-        <f>J17-J15</f>
-        <v>2.8279000000000054E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0.941882</v>
-      </c>
-      <c r="D17">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="E17">
-        <v>1.4222699999999999</v>
-      </c>
-      <c r="F17">
-        <v>1.12313</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="K17">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="L17">
-        <v>1.1766700000000001</v>
-      </c>
-      <c r="M17">
-        <v>1.42615</v>
-      </c>
-      <c r="N17">
-        <f>(N16+N18)/2</f>
-        <v>-3.6984999999999935E-3</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="R17">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="S17">
-        <v>1.2130300000000001</v>
-      </c>
-      <c r="T17">
-        <v>1.4601900000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J18">
-        <f>(J17+J19)/2</f>
-        <v>0.8024</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18" si="16">(K17+K19)/2</f>
-        <v>0.95042850000000001</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="17">(L17+L19)/2</f>
-        <v>1.1499000000000001</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ref="M18" si="18">(M17+M19)/2</f>
-        <v>1.42421</v>
-      </c>
-      <c r="N18">
-        <f>J19-J17</f>
-        <v>-3.5676000000000041E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>-3</v>
-      </c>
-      <c r="C19">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0.89112999999999998</v>
+      </c>
+      <c r="D40">
         <v>0.91527499999999995</v>
       </c>
-      <c r="D19">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="E19">
-        <v>1.3812800000000001</v>
-      </c>
-      <c r="F19">
+      <c r="E40">
         <v>1.0498499999999999</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="K19">
-        <v>0.941882</v>
-      </c>
-      <c r="L19">
-        <v>1.12313</v>
-      </c>
-      <c r="M19">
-        <v>1.4222699999999999</v>
-      </c>
-      <c r="N19">
-        <f>(N18+N20)/2</f>
-        <v>3.5445999999999978E-2</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="R19">
-        <v>0.91527499999999995</v>
-      </c>
-      <c r="S19">
-        <v>1.0498499999999999</v>
-      </c>
-      <c r="T19">
-        <v>1.3812800000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="J20">
-        <f>(J19+J21)/2</f>
-        <v>0.83784599999999998</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ref="K20" si="19">(K19+K21)/2</f>
-        <v>0.92857849999999997</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20" si="20">(L19+L21)/2</f>
-        <v>1.08649</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="21">(M19+M21)/2</f>
-        <v>1.401775</v>
-      </c>
-      <c r="N20">
-        <f>J21-J19</f>
-        <v>0.106568</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.91527499999999995</v>
-      </c>
-      <c r="E21">
-        <v>1.0498499999999999</v>
-      </c>
-      <c r="F21">
-        <v>1.3812800000000001</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="K21">
-        <v>0.91527499999999995</v>
-      </c>
-      <c r="L21">
-        <v>1.0498499999999999</v>
-      </c>
-      <c r="M21">
-        <v>1.3812800000000001</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0.941882</v>
-      </c>
-      <c r="R21">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="S21">
-        <v>1.4222699999999999</v>
-      </c>
-      <c r="T21">
-        <v>1.12313</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0.941882</v>
-      </c>
-      <c r="D41">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="E41">
-        <v>1.4222699999999999</v>
-      </c>
-      <c r="F41">
-        <v>1.12313</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="D42">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="E42">
-        <v>1.42615</v>
-      </c>
-      <c r="F42">
-        <v>1.1766700000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43">
-        <v>-2</v>
-      </c>
-      <c r="C43">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="D43">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="E43">
-        <v>1.4601900000000001</v>
-      </c>
-      <c r="F43">
-        <v>1.2130300000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44">
-        <v>-3</v>
-      </c>
-      <c r="C44">
-        <v>0.91527499999999995</v>
-      </c>
-      <c r="D44">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="E44">
-        <v>1.3812800000000001</v>
-      </c>
-      <c r="F44">
-        <v>1.0498499999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0.78456199999999998</v>
-      </c>
-      <c r="D45">
-        <v>0.941882</v>
-      </c>
-      <c r="E45">
-        <v>1.12313</v>
-      </c>
-      <c r="F45">
-        <v>1.4222699999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0.82023800000000002</v>
-      </c>
-      <c r="D46">
-        <v>0.95897500000000002</v>
-      </c>
-      <c r="E46">
-        <v>1.1766700000000001</v>
-      </c>
-      <c r="F46">
-        <v>1.42615</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>0.79195899999999997</v>
-      </c>
-      <c r="D47">
-        <v>0.99183200000000005</v>
-      </c>
-      <c r="E47">
-        <v>1.2130300000000001</v>
-      </c>
-      <c r="F47">
-        <v>1.4601900000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>0.89112999999999998</v>
-      </c>
-      <c r="D48">
-        <v>0.91527499999999995</v>
-      </c>
-      <c r="E48">
-        <v>1.0498499999999999</v>
-      </c>
-      <c r="F48">
+      <c r="F40">
         <v>1.3812800000000001</v>
       </c>
     </row>

--- a/Documents/elephant leg angle.xlsx
+++ b/Documents/elephant leg angle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B1946-06E1-4E33-B18D-2CF78629265B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC803CAF-2ED6-439E-A082-CE40868D4DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{966C0F8B-A4D1-45A4-97F7-375E6DEC019D}"/>
   </bookViews>
@@ -1481,6 +1481,767 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800"/>
+              <a:t>Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" baseline="0"/>
+              <a:t> : 1.95</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6074708735839966E-2"/>
+          <c:y val="0.14856695656907981"/>
+          <c:w val="0.92332032624636107"/>
+          <c:h val="0.69561199352142966"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dijskra!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dijskra!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dijskra!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.89112999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95897500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.941882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91527499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82023800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78456199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89112999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AF9-477D-85F7-286273C96BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dijskra!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dijskra!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dijskra!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91527499999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82023800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79195899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78456199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89112999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99183200000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95897500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.941882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91527499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AF9-477D-85F7-286273C96BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dijskra!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dijskra!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dijskra!$M$5:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0498499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4222699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3812800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1766700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.12313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0498499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AF9-477D-85F7-286273C96BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dijskra!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Dijskra!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dijskra!$N$5:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3812800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1766700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2130300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0498499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4601900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.42615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4222699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3812800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3AF9-477D-85F7-286273C96BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="568392376"/>
+        <c:axId val="568392704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="568392376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568392704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568392704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568392376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5292,14 +6053,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>r:</a:t>
+              <a:rPr lang="fr-FR" sz="1800"/>
+              <a:t>Score : 1.89</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> 1.89 (min)</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6044,7 +6800,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>no juxtaposition of opposites positions (min_r: 1.95)</a:t>
+              <a:t>No juxtaposition of opposites positions (min_r: 1.95)</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -6081,7 +6837,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0908481161078988E-2"/>
+          <c:y val="0.10966916694197867"/>
+          <c:w val="0.89568699132383456"/>
+          <c:h val="0.75409923850912908"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -6123,57 +6889,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.3403854995602225E-2"/>
-                  <c:y val="0.15458883173913196"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Dijskra!$I$5:$I$13</c:f>
@@ -6604,117 +7319,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dijskra!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lf derivate second</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Dijskra!$I$5:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Dijskra!$O$5:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
-                  <c:v>-3.4988000000000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.2807000000000075E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3343000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.6708999999999934E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15159500000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6.3955000000000095E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14224400000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4AFD-4802-8F28-3AA3C7B470E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6733,7 +7337,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6796,6 +7400,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>angle in radian</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6955,6 +7614,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8320,6 +9019,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -12611,15 +13813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>245268</xdr:colOff>
+      <xdr:colOff>64292</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
+      <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>597693</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12647,7 +13849,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>292891</xdr:colOff>
+      <xdr:colOff>178076</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
@@ -12711,6 +13913,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290305</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA540D5-CC38-4994-B96C-5CEB381B0A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13018,7 +14256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B569A27-8A8D-40E7-BAAE-ACAD67B4DCD9}">
   <dimension ref="A6:X39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J38" sqref="J38:O51"/>
     </sheetView>
   </sheetViews>
@@ -13495,7 +14733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46834D89-02D8-4441-BE6E-8BB7A9F86D13}">
   <dimension ref="B4:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F13"/>
     </sheetView>
   </sheetViews>
@@ -13800,8 +15038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA7CED-6CCE-4054-BEA1-4FADCD5626CC}">
   <dimension ref="B4:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14037,11 +15275,8 @@
       <c r="F8">
         <v>1.42615</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <f>3-H8</f>
+        <f>3</f>
         <v>3</v>
       </c>
       <c r="J8">
@@ -14158,7 +15393,7 @@
         <v>1.1766700000000001</v>
       </c>
       <c r="I10">
-        <f>5+H8</f>
+        <f>5</f>
         <v>5</v>
       </c>
       <c r="J10">
